--- a/biology/Botanique/Lecythidaceae/Lecythidaceae.xlsx
+++ b/biology/Botanique/Lecythidaceae/Lecythidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lecythidaceae (les Lécythidacées en français) sont une famille de plantes à fleurs dicotylédones de l'ordre des Ericales, selon la classification phylogénétique.Selon Watson &amp; Dallwitz, elle comprend environ 325 espèces réparties en 10 genres : Allontoma, Bertholletia, Cariniana, Corythophora, Couratari, Couroupita, Eschweilera, Grias, Gustavia, Lecythis.
 Ce sont des arbres des régions subtropicales à tropicales d'Amérique, de Madagascar, des Comores et d'Afrique de l'Est.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Lecythis qui vient du grec λήκυθος / lekythos, « petit vase, burette à huile », en référence à la forme des fruits.
-Le nom vernaculaire anglo-saxon du genre est d’ailleurs pot de singe (en), nom qui dériverait d'un vieux proverbe « un vieux singe sage ne met pas sa main dans un pot », se référant au fruit en forme de pot qui contient les graines, et à l'empressement des jeunes singes à s'en saisir. Ces derniers enfonceraient leur patte dans le fruit presque mûr et, celle-ci étant trop chargée de graines, ils seraient incapables de la ressortir, tandis que les vieux singes apprendraient qu'il vaut mieux retirer les graines une par une[1].
+Le nom vernaculaire anglo-saxon du genre est d’ailleurs pot de singe (en), nom qui dériverait d'un vieux proverbe « un vieux singe sage ne met pas sa main dans un pot », se référant au fruit en forme de pot qui contient les graines, et à l'empressement des jeunes singes à s'en saisir. Ces derniers enfonceraient leur patte dans le fruit presque mûr et, celle-ci étant trop chargée de graines, ils seraient incapables de la ressortir, tandis que les vieux singes apprendraient qu'il vaut mieux retirer les graines une par une.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification classique de Cronquist (1981)[2] situe la famille dans l'ordre des Lecythidales et y inclut les familles des Asteranthaceae, Barringtoniaceae, Foetidiaceae et des Napoleonaeaceae (nl).
-La classification phylogénétique APG II (2003)[3] la situe dans l'ordre des Ericales et y inclut, additionnellement, les Scytopétalacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification classique de Cronquist (1981) situe la famille dans l'ordre des Lecythidales et y inclut les familles des Asteranthaceae, Barringtoniaceae, Foetidiaceae et des Napoleonaeaceae (nl).
+La classification phylogénétique APG II (2003) la situe dans l'ordre des Ericales et y inclut, additionnellement, les Scytopétalacées.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (4 déc. 2017)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (4 déc. 2017) :
 Foetidioideae Engler
 Lecythidoideae Beilschmied
 Napoleonaeoideae Bentham
@@ -611,7 +629,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les sous-familles :
 Foetidioidées : Foetidia
@@ -619,7 +639,7 @@
 Napoléonaeoidées : Crateranthus, Napoleonaea
 Planchonioidées : Abdulmajidia, Barringtonia, Careya, Chydenanthus, Petersianthus, Planchonia
 Scytopétaloidées : Asteranthos, Brazzeia, Oubanguia, Pierrina, Rhaptopetalum, Scytopetalum
-Selon Angiosperm Phylogeny Website                        (22 novembre 2017)[5] :
+Selon Angiosperm Phylogeny Website                        (22 novembre 2017) :
 genre Abdulmajidia Whitmore
 genre Allantoma Miers
 genre Asteranthos Desf.
@@ -645,7 +665,7 @@
 genre Planchonia Blume
 genre Rhaptopetalum Oliv.
 genre Scytopetalum Pierre ex Engl.
-Selon NCBI  (29 juin 2010)[6] :
+Selon NCBI  (29 juin 2010) :
 genre Allantoma
 genre Asteranthos
 genre Barringtonia
@@ -668,7 +688,7 @@
 genre Planchonia
 genre Rhaptopetalum
 genre Scytopetalum
-Selon DELTA Angio           (29 juin 2010)[7] :
+Selon DELTA Angio           (29 juin 2010) :
 genre Allontoma
 genre Bertholletia
 genre Cariniana
@@ -679,7 +699,7 @@
 genre Grias
 genre Gustavia
 genre Lecythis
-Selon ITIS      (4 déc. 2017)[8] :
+Selon ITIS      (4 déc. 2017) :
 genre Barringtonia J.R. &amp; G. Forst
 genre Bertholletia Humb. &amp; Bonpl.
 genre Couroupita Aubl.
@@ -713,9 +733,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (29 juin 2010)[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (29 juin 2010) :
 genre Allantoma
 Allantoma lineata
 genre Asteranthos
